--- a/Excel Files/Pertussis_WA_2012.xlsx
+++ b/Excel Files/Pertussis_WA_2012.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\ms\EpiGro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joceline Lega\Documents\GitHub\EpiGro\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>FIGURE 1. Number of confirmed and probable pertussis cases reported, by week of onset — Washington, January 1, 2011–June 16, 2012*</t>
   </si>
   <si>
     <t xml:space="preserve">** End of Reporting… </t>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Total Cases</t>
-  </si>
-  <si>
-    <t>Figure 1</t>
   </si>
 </sst>
 </file>
@@ -703,253 +703,253 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>149</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>185</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>199</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>229</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>245</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>262</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>299</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>319</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>339</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>361</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>384</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>407</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>432</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>457</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>483</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>510</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>538</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>566</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>595</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>624</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>653</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>683</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>714</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>744</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>774</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>804</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>835</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>866</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>901</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>940</c:v>
+                  <c:v>966</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>986</c:v>
+                  <c:v>1016</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1040</c:v>
+                  <c:v>1074</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1101</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1171</c:v>
+                  <c:v>1216</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1250</c:v>
+                  <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1340</c:v>
+                  <c:v>1399</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1439</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1549</c:v>
+                  <c:v>1622</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1669</c:v>
+                  <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1799</c:v>
+                  <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1937</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2083</c:v>
+                  <c:v>2176</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2233</c:v>
+                  <c:v>2329</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2387</c:v>
+                  <c:v>2484</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2543</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2697</c:v>
+                  <c:v>2789</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2847</c:v>
+                  <c:v>2935</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2991</c:v>
+                  <c:v>3075</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3128</c:v>
+                  <c:v>3208</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3256</c:v>
+                  <c:v>3330</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3375</c:v>
+                  <c:v>3443</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3483</c:v>
+                  <c:v>3545</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3581</c:v>
+                  <c:v>3636</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3669</c:v>
+                  <c:v>3718</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3747</c:v>
+                  <c:v>3790</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3815</c:v>
+                  <c:v>3853</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3875</c:v>
+                  <c:v>3908</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3928</c:v>
+                  <c:v>3956</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3973</c:v>
+                  <c:v>3998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4012</c:v>
+                  <c:v>4033</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4046</c:v>
+                  <c:v>4064</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4074</c:v>
+                  <c:v>4090</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4099</c:v>
+                  <c:v>4112</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4119</c:v>
+                  <c:v>4131</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4137</c:v>
+                  <c:v>4147</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4152</c:v>
+                  <c:v>4161</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4165</c:v>
+                  <c:v>4172</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4175</c:v>
+                  <c:v>4182</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4184</c:v>
+                  <c:v>4190</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4192</c:v>
+                  <c:v>4196</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4199</c:v>
+                  <c:v>4202</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4205</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4209</c:v>
+                  <c:v>4211</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4213</c:v>
+                  <c:v>4215</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4216</c:v>
+                  <c:v>4218</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4218</c:v>
+                  <c:v>4220</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4220</c:v>
+                  <c:v>4222</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4222</c:v>
+                  <c:v>4224</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4224</c:v>
+                  <c:v>4225</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>4226</c:v>
@@ -964,16 +964,16 @@
                   <c:v>4229</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4229</c:v>
+                  <c:v>4230</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>4230</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4230</c:v>
+                  <c:v>4231</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4230</c:v>
+                  <c:v>4231</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>4231</c:v>
@@ -1491,11 +1491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1662334672"/>
-        <c:axId val="-1662342288"/>
+        <c:axId val="-1709480624"/>
+        <c:axId val="-1709478448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1662334672"/>
+        <c:axId val="-1709480624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,12 +1552,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1662342288"/>
+        <c:crossAx val="-1709478448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1662342288"/>
+        <c:axId val="-1709478448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1662334672"/>
+        <c:crossAx val="-1709480624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2336,11 +2336,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1492785696"/>
-        <c:axId val="-1492783520"/>
+        <c:axId val="-1709476272"/>
+        <c:axId val="-1709483888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1492785696"/>
+        <c:axId val="-1709476272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1492783520"/>
+        <c:crossAx val="-1709483888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1492783520"/>
+        <c:axId val="-1709483888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1492785696"/>
+        <c:crossAx val="-1709476272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2997,15 +2997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4297,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
@@ -4305,29 +4305,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1491</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>30.24</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>673.78</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>4232.8</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>155.04</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>4232</v>
@@ -4585,7 +4585,7 @@
         <v>160</v>
       </c>
       <c r="F21">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>170</v>
       </c>
       <c r="F22">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -4607,7 +4607,7 @@
         <v>180</v>
       </c>
       <c r="F23">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
@@ -4618,7 +4618,7 @@
         <v>192</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
@@ -4629,7 +4629,7 @@
         <v>203</v>
       </c>
       <c r="F25">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
         <v>209</v>
       </c>
       <c r="F26">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
         <v>231</v>
       </c>
       <c r="F27">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
         <v>243</v>
       </c>
       <c r="F28">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
         <v>262</v>
       </c>
       <c r="F29">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
@@ -4684,7 +4684,7 @@
         <v>285</v>
       </c>
       <c r="F30">
-        <v>280</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
         <v>304</v>
       </c>
       <c r="F31">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
@@ -4706,7 +4706,7 @@
         <v>328</v>
       </c>
       <c r="F32">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
         <v>354</v>
       </c>
       <c r="F33">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
@@ -4728,7 +4728,7 @@
         <v>373</v>
       </c>
       <c r="F34">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
         <v>401</v>
       </c>
       <c r="F35">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>422</v>
       </c>
       <c r="F36">
-        <v>407</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
@@ -4761,7 +4761,7 @@
         <v>446</v>
       </c>
       <c r="F37">
-        <v>432</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>468</v>
       </c>
       <c r="F38">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>494</v>
       </c>
       <c r="F39">
-        <v>483</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
         <v>524</v>
       </c>
       <c r="F40">
-        <v>510</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
@@ -4805,7 +4805,7 @@
         <v>556</v>
       </c>
       <c r="F41">
-        <v>538</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>591</v>
       </c>
       <c r="F42">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
@@ -4827,7 +4827,7 @@
         <v>621</v>
       </c>
       <c r="F43">
-        <v>595</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
@@ -4838,7 +4838,7 @@
         <v>649</v>
       </c>
       <c r="F44">
-        <v>624</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>673</v>
       </c>
       <c r="F45">
-        <v>653</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
@@ -4860,7 +4860,7 @@
         <v>699</v>
       </c>
       <c r="F46">
-        <v>683</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
@@ -4871,7 +4871,7 @@
         <v>729</v>
       </c>
       <c r="F47">
-        <v>714</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
         <v>749</v>
       </c>
       <c r="F48">
-        <v>744</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>784</v>
       </c>
       <c r="F49">
-        <v>774</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
@@ -4904,7 +4904,7 @@
         <v>829</v>
       </c>
       <c r="F50">
-        <v>804</v>
+        <v>823</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
         <v>869</v>
       </c>
       <c r="F51">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
@@ -4926,7 +4926,7 @@
         <v>899</v>
       </c>
       <c r="F52">
-        <v>866</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
         <v>931</v>
       </c>
       <c r="F53">
-        <v>901</v>
+        <v>923</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>978</v>
       </c>
       <c r="F54">
-        <v>940</v>
+        <v>966</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
         <v>1025</v>
       </c>
       <c r="F55">
-        <v>986</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
@@ -4970,7 +4970,7 @@
         <v>1074</v>
       </c>
       <c r="F56">
-        <v>1040</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
         <v>1136</v>
       </c>
       <c r="F57">
-        <v>1101</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>1190</v>
       </c>
       <c r="F58">
-        <v>1171</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
@@ -5003,7 +5003,7 @@
         <v>1263</v>
       </c>
       <c r="F59">
-        <v>1250</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
@@ -5014,7 +5014,7 @@
         <v>1353</v>
       </c>
       <c r="F60">
-        <v>1340</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
@@ -5025,7 +5025,7 @@
         <v>1443</v>
       </c>
       <c r="F61">
-        <v>1439</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
         <v>1535</v>
       </c>
       <c r="F62">
-        <v>1549</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>1627</v>
       </c>
       <c r="F63">
-        <v>1669</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
         <v>1720</v>
       </c>
       <c r="F64">
-        <v>1799</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
@@ -5069,7 +5069,7 @@
         <v>1831</v>
       </c>
       <c r="F65">
-        <v>1937</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
         <v>1953</v>
       </c>
       <c r="F66">
-        <v>2083</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
@@ -5091,7 +5091,7 @@
         <v>2096</v>
       </c>
       <c r="F67">
-        <v>2233</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
@@ -5102,7 +5102,7 @@
         <v>2253</v>
       </c>
       <c r="F68">
-        <v>2387</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
@@ -5113,7 +5113,7 @@
         <v>2442</v>
       </c>
       <c r="F69">
-        <v>2543</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
@@ -5124,7 +5124,7 @@
         <v>2629</v>
       </c>
       <c r="F70">
-        <v>2697</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
@@ -5135,7 +5135,7 @@
         <v>2812</v>
       </c>
       <c r="F71">
-        <v>2847</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
         <v>3017</v>
       </c>
       <c r="F72">
-        <v>2991</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>3188</v>
       </c>
       <c r="F73">
-        <v>3128</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>3334</v>
       </c>
       <c r="F74">
-        <v>3256</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.25">
@@ -5179,7 +5179,7 @@
         <v>3445</v>
       </c>
       <c r="F75">
-        <v>3375</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>3503</v>
       </c>
       <c r="F76">
-        <v>3483</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
         <v>75</v>
       </c>
       <c r="F77">
-        <v>3581</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
         <v>76</v>
       </c>
       <c r="F78">
-        <v>3669</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.25">
@@ -5214,7 +5214,7 @@
         <v>77</v>
       </c>
       <c r="F79">
-        <v>3747</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.25">
@@ -5222,7 +5222,7 @@
         <v>78</v>
       </c>
       <c r="F80">
-        <v>3815</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
@@ -5230,7 +5230,7 @@
         <v>79</v>
       </c>
       <c r="F81">
-        <v>3875</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
         <v>80</v>
       </c>
       <c r="F82">
-        <v>3928</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
         <v>81</v>
       </c>
       <c r="F83">
-        <v>3973</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
         <v>82</v>
       </c>
       <c r="F84">
-        <v>4012</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.25">
@@ -5262,7 +5262,7 @@
         <v>83</v>
       </c>
       <c r="F85">
-        <v>4046</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
         <v>84</v>
       </c>
       <c r="F86">
-        <v>4074</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
         <v>85</v>
       </c>
       <c r="F87">
-        <v>4099</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
         <v>86</v>
       </c>
       <c r="F88">
-        <v>4119</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.25">
@@ -5294,7 +5294,7 @@
         <v>87</v>
       </c>
       <c r="F89">
-        <v>4137</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.25">
@@ -5302,7 +5302,7 @@
         <v>88</v>
       </c>
       <c r="F90">
-        <v>4152</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.25">
@@ -5310,7 +5310,7 @@
         <v>89</v>
       </c>
       <c r="F91">
-        <v>4165</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
         <v>90</v>
       </c>
       <c r="F92">
-        <v>4175</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
         <v>91</v>
       </c>
       <c r="F93">
-        <v>4184</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.25">
@@ -5334,7 +5334,7 @@
         <v>92</v>
       </c>
       <c r="F94">
-        <v>4192</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>93</v>
       </c>
       <c r="F95">
-        <v>4199</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>94</v>
       </c>
       <c r="F96">
-        <v>4205</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
         <v>95</v>
       </c>
       <c r="F97">
-        <v>4209</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
@@ -5366,7 +5366,7 @@
         <v>96</v>
       </c>
       <c r="F98">
-        <v>4213</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
@@ -5374,7 +5374,7 @@
         <v>97</v>
       </c>
       <c r="F99">
-        <v>4216</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
@@ -5382,7 +5382,7 @@
         <v>98</v>
       </c>
       <c r="F100">
-        <v>4218</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
@@ -5390,7 +5390,7 @@
         <v>99</v>
       </c>
       <c r="F101">
-        <v>4220</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
@@ -5398,7 +5398,7 @@
         <v>100</v>
       </c>
       <c r="F102">
-        <v>4222</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
@@ -5406,7 +5406,7 @@
         <v>101</v>
       </c>
       <c r="F103">
-        <v>4224</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
@@ -5446,7 +5446,7 @@
         <v>106</v>
       </c>
       <c r="F108">
-        <v>4229</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
         <v>108</v>
       </c>
       <c r="F110">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
         <v>109</v>
       </c>
       <c r="F111">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
@@ -5492,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5567,7 +5567,9 @@
       <c r="D6">
         <v>13</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5591,7 +5593,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5604,9 +5606,7 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5767,7 +5767,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>11</v>
